--- a/Opollo/src/test/data/pms/virtual_bundle_import_update_template_v4.xlsx
+++ b/Opollo/src/test/data/pms/virtual_bundle_import_update_template_v4.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="596">
   <si>
     <r>
       <rPr>
@@ -2160,6 +2160,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>LKSNMJC01V</t>
   </si>
 </sst>
 </file>
@@ -2957,32 +2960,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.1640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="19.83203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="22.5" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="22.83203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="11" width="11.83203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="11" width="15.83203125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="17.83203125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.5" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="18.5" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="12" width="17.1640625" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="12" width="13.5" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.83203125" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="11" width="13.5" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.5" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="11" width="9.6640625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" style="13" width="21.6640625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="12.1640625" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.33203125" collapsed="false"/>
-    <col min="19" max="20" customWidth="true" width="18.1640625" collapsed="false"/>
-    <col min="21" max="22" customWidth="true" width="24.1640625" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" hidden="true" style="12" width="19.83203125" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" hidden="true" style="12" width="17.5" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" style="12" width="24.5" collapsed="false"/>
-    <col min="26" max="27" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" width="14.5" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" width="21.33203125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="11" width="11.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="11" width="15.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.83203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="12" width="17.1640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="12" width="13.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="11" width="13.5" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="9.6640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="13" width="21.6640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="12.1640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="19" max="20" customWidth="true" width="18.1640625" collapsed="true"/>
+    <col min="21" max="22" customWidth="true" width="24.1640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" hidden="true" style="12" width="19.83203125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" hidden="true" style="12" width="17.5" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="12" width="24.5" collapsed="true"/>
+    <col min="26" max="27" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="21.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3251,10 +3254,10 @@
         <v>590</v>
       </c>
       <c r="C4" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D4" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -3637,12 +3640,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.5" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" width="14.5" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="14.5" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="18.5" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="6" width="27.33203125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="6" width="27.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3784,8 +3787,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="50.5" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="10.5" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
